--- a/src/main/resources/YelpTestData.xlsx
+++ b/src/main/resources/YelpTestData.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Root\PerfectoCI\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:J16"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,13 +62,13 @@
     <t>PerfectoMobile</t>
   </si>
   <si>
-    <t>stable</t>
-  </si>
-  <si>
     <t>Android</t>
   </si>
   <si>
     <t>iOS</t>
+  </si>
+  <si>
+    <t>Stable</t>
   </si>
 </sst>
 </file>
@@ -402,7 +406,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,21 +459,21 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
